--- a/500all/speech_level/speeches_CHRG-114hhrg98679.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98679.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,42 +52,24 @@
     <t>400263</t>
   </si>
   <si>
-    <t>James P. McGovern</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McGovern. Well, thank you, Chairwoman Walorski, for holding today's hearing, and I want to thank all the witnesses for being here. I am happy to see a familiar face in Barb Petee from The Root Cause Coalition. I look forward to hearing everybody's testimony.    Incentives for maximizing Federal nutrition programs is a relatively new area of policy, and one that I think holds a lot of promise. Through programs like SNAP EBT at farmers' markets, the Seniors' Farmers' Market Nutrition Program, and the WIC Farmers' Market Nutrition Program, we can get more bang for our buck with our Federal nutrition dollars. And there are a number of creative initiatives happening all over this country that are worth focusing on.    I am impressed with the growing body of research that is looking at hunger as a health issue, and food as medicine. When I was growing up, my grandmother always used to say an apple a day keeps the doctor away. I wish she was still alive to tell her she was right. But we know that hunger can exacerbate underlying medical conditions like diabetes, heart disease, and cancer, and can result in life threatening complications. Not only that, hunger can result in more trips to the emergency room, and more hospitalizations, which only increase health care costs all across the board. But hunger can also be one of the most treatable health conditions. We have the resources, and we know the solution. We just need to connect the dots, which is where these incentive programs come in.    I have had the pleasure of working with Gus Schumacher, who served, first in the Clinton Administration, and then in a variety of capacities, and currently at Wholesome Wave. I have seen firsthand the way his organization has been able to leverage Federal dollars to double, and even triple, fresh fruit and vegetable purchases at farmers' markets for seniors and low-income families. It is really impressive. And we ought to be thinking about how we can expand these incentive programs even more.    During our Subcommittee hearing a few weeks ago, we heard about the growing problem of hunger among veterans and military families. Why not create a Veterans' Farmers' Market Nutrition Program? Veterans could get vouchers at their local VA clinics to purchase fresh fruits and vegetables. And, in addition, why not encourage VA clinics to hold farmers' markets at their facilities? These kinds of incentives programs are not only good for consumers, but they are good for the farmers who grow the food. They are economic drivers in the local economy, and have a positive multiplier effect. We heard that firsthand from farmers in yesterday's Biotechnology, Horticulture, and Research Subcommittee hearing. And there is also good data emerging showing that incentive programs can lead to real savings in the long run, in terms of improved health outcomes, higher educational attainment, and increased productivity in the workforce. Nutrition incentive programs are a sound investment, and I look forward to today's conversation, and again thank you all for being here.    The Chairwoman. Thank you, Mr. McGovern. The chair would request that other Members submit their opening statements for the record so the witnesses may begin testimony, and to ensure there is ample time for questions. The chair would also like to notify Members that they will be recognized for questioning in order of seniority for Members who were here at the start of the hearing. After that, Members will be recognized in order of arrival. I appreciate Members' understanding.    Witnesses are reminded to limit their oral statements to 5 minutes, and there is a countdown clock in front of you. All of the written statements will be included in the record. So I would now like to welcome our witnesses to the table. Dr. Oran Hesterman, CEO, Fair Food Network, Ann Arbor, Michigan. Dr. Ashton Potter Wright, Bluegrass Farm to Table, Office of the Mayor, Lexington, Kentucky. Kathleen Kiley, Crossroads Farmers' Market shopper, and current SNAP recipient, Washington, D.C. Eric Cooper, President and CEO, San Antonio Food Bank, San Antonio, Texas. And Barbara Petee, Executive Director, The Root Cause Coalition, Washington, D.C.    Dr. Hesterman, please begin with your testimony when you are ready.  STATEMENT OF ORAN B. HESTERMAN, Ph.D., PRESIDENT AND CHIEF </t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Hesterman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Hesterman. Thank you, Chairwoman Walorski, Ranking Member McGovern, and distinguished Members of the Subcommittee, including my Michigan representatives, Mr. Benishek and Mr. Moolenaar. Good morning. Thank you for holding today's hearing.    Fair Food Network's signature program is Double Up Food Bucks. Our experience shows that matching SNAP benefits with incentives for locally grown produce is a cost-effective way to reduce hunger, improve dietary health, and stimulate local economies that create jobs. There are three main points that I would like to leave you with today. First, health food incentives work. Second, the Food Insecurity Nutrition Incentives grant program, or FINI, that Congress created in the 2014 Farm Bill is supporting excellent work nationwide. And third, such results warrant supporting and expanding this public-private partnership.    I founded Fair Food Network in 2009, at a time when 17 percent of Michiganders were receiving SNAP. Knowing that I was in a state with a strong agriculture sector, it made sense to try a SNAP incentive program modeled after one that I had seen in Maryland a few years before, and you are going to hear a little bit more about that program in a minute. The design is simple. For every dollar of SNAP a customer spends on locally grown produce, they get an additional dollar to spend on more fruits and vegetables. We piloted Double Up Food Bucks at five farmers' markets that first year. Last year, Double Up operated in more than 140 farmers' markets and 22 groceries stores throughout the state.    So how do we know it works? In 2007, prior to the start of Double Up Food Bucks, total annual SNAP sales at farmers' markets throughout the State of Michigan was $15,000. In 2015, shoppers spent more than $1.5 million in SNAP and Double Up at participating farmers' markets, an additional $200,000 at grocery stores. These are dollars dedicated to helping families bring home more fruits and vegetables. Our evaluation shows that 85 percent of customers say they are eating more produce because of the program, and 60 percent are eating less junk food. Partnerships are crucial to the program's success. We work closely with Michigan SNAP education efforts and organizations. You can learn more about our experience in Michigan in documents that we included in the appendix of our testimony.    But this is not just a Michigan success story. We conducted an evaluation with three other organizations, analyzing 500 farmers' markets in 24 states, and found that, regardless of the setting, urban or rural, large or small, incentives work. Congress responded, and created the Food Insecurity Nutrition Incentive Program. USDA's National Institute of Food and Agriculture is implementing this $100 million competitive grants program. We were honored to receive a grant in the first round of funding, which we matched with over $5 million of additional private funding. This multi-year investment has been a game changer for us, and a huge opportunity for the field. It is allowing us to expand Double Up to many more sites, to extend the program to year-round, and develop new payment transaction technologies that ensure SNAP program integrity, and reduce administrative costs. New partners in many states are working with Fair Food Network to bring Double Up to their communities. As we look ahead toward the next farm bill, there are two opportunities we should be considering. First, we need to develop additional payment technologies for different retail settings, and second, communications is absolutely vital to the success of incentive programs. When people use Double Up, they are hooked. But if they don't know about it, they are not able to benefit from the incentives.    In conclusion, we know there is no single silver bullet, but our experience, and that of our colleagues nationwide, demonstrates the power of healthy food incentives. They work. By partnering across disciplines, we can integrate healthy local produce into an existing Federal nutrition program, and create benefits on multiple fronts simultaneously. Every Federal dollar spent has an immediate return on investment, in terms of reducing hunger, increasing produce consumption, and boosting farm income. FINI is making a difference. It is supporting workable models that are enhancing the value of SNAP and creating connections between rural and urban communities. We have an opportunity now to prepare for and support further development and expansion of this public-private partnership. Many of you have SNAP incentive programs in your districts, and I encourage you to visit them and learn more. Thank you again for this opportunity to share our experience.</t>
   </si>
   <si>
-    <t>Wright</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Wright. Chairwoman Walorski, Ranking Member McGovern, and Members of the Subcommittee, thank you for the honor to testify on the Bluegrass Double Dollars Pilot Program, a project supported by the USDA Food Insecurity Nutrition Incentive Program, or FINI. And a special thank you to my fellow witnesses for sharing their important work. My name is Ashton Wright, and I have the unique responsibility of serving as the City of Lexington, Kentucky's first local food coordinator. I manage Bluegrass Farm to Table, a program that supports food related agricultural development, and the improvement of nutritional health in the region. In today's testimony, I will highlight the work happening in Lexington around nutrition incentive programs, work that was established by pilot funding from FINI.    I work in partnership with Bluegrass Community Foundation to implement our Double Dollars Program, which aims to improve access to healthy, affordable, locally grown produce for low-income individuals participating in the Supplemental Nutrition Assistance Program, or SNAP. Simultaneously, the program strives to strengthen Kentucky's farm economy by increasing the demand for locally grown produce. Based on our pilot project experience, we have identified three ways to strengthen the FINI program. One, encourage strong multi-sector partnerships. Two, increase coordination and collaboration with state SNAP offices. And three, develop a community of practice for FINI grantees.    To provide context, one in five Kentucky residents participates in SNAP. Additionally, our region faces the dichotomy of food insecurity and high rates of obesity. Increasing produce consumption is a documented strategy to help reduce many of the health outcomes associated with obesity. Two of the critical barriers to the purchase and consumption of fresh produce among low-income Lexington residents is lack of access and affordability. Bluegrass Double Dollars aims to reduce these barriers.    Specifically, our program allow SNAP participants to double their purchasing power to buy locally grown produce at three pilot locations, a farmers' market, a cooperatively owned grocery store, and a corner market. The program provides incentives for Kentucky grown produce, coupled with targeted community outreach and education to help SNAP participants become more familiar with, and more willing to purchase, locally grown produce. According to our evaluation data, 90 percent of respondents said that the program encouraged them to purchase more locally grown produce. In the first 6 months of our pilot, the average redemption rate of our incentive vouchers was nearly 80 percent, and the total value of double dollars redeemed for Kentucky grown produce was over $15,000, a win-win for SNAP recipients and Kentucky farmers. This last year we have learned that there is tremendous value in partnering with the Federal Government on nutrition incentive programs. It demonstrates commitment to promoting healthy eating and reducing food insecurity. Because our pilot demonstrates the benefits of healthy eating and supporting local farmers, it allows us to partner and leverage support with stakeholders and funders in both the health and agriculture sectors.    From our experience, we recommend the Committee consider providing USDA with an increase of resources to implement the following three recommendations. First, we recommend that strong multi-sector partnerships be encouraged in an effort to develop sustainable incentive programs that encourage healthy eating among SNAP participants. FINI provides a unique opportunity for building stronger partnerships between the food security and local agriculture sectors by prioritizing projects that incentivize locally sourced produce. Future Federal initiatives should build on this momentum to improve access to healthy, affordable produce, while also strengthening local food economies.    Second, we recommend a more comprehensive approach to educating SNAP recipients about where they can use their SNAP benefits. Specifically, we recommend incentivizing state and local SNAP offices to work collaboratively with grantees to help educate SNAP participants about where they can purchase produce with their benefits, and encourage them to take advantage of these incentive programs, like Bluegrass Double Dollars. Cultivating this buy-in from state and local SNAP offices is critical to the future success of programs like     Third, in the spirit of maximizing the impact of Federal dollars, we recommend that USDA develop a community of practice for organizations implementing incentive programs through FINI to share best practices and lessons learned. This peer-to-peer technical assistance network would streamline the development of resources on which all FINI grantees are working, including technology development, logistics, and education. Fostering this multi-sector collaboration will maximize the impact of the Federal investment in this program.    I look forward to working with the Subcommittee, and my colleagues, to build on the momentum FINI has established to bridge the gap between the important work of reducing food insecurity and strengthening local food economies. And again, I sincerely thank the Chairwoman, Ranking Member McGovern, and members of the staff and Subcommittee for the opportunity to share our lessons learned from the field today.    [The prepared statement of Dr. Wright:]     Prepared Statement of Ashton Potter Wright, Ph.D., Local Food   Coordinator, Bluegrass Farm to Table, Office of the Mayor, City of                        Lexington, Lexington, KYImproving Access to Healthy Food and Supporting Local Food Systems         through the Food Insecurity Nutrition Incentive (FINI) ProgramIntroduction    Subcommittee Chairwoman Walorski, Ranking Member McGovern, and Members of the Subcommittee on Nutrition, it is an honor to be here to testify on the Bluegrass Double Dollars Pilot Program--a project supported by the USDA Food Insecurity Nutrition Incentive (FINI) program. Thank you for the opportunity to share what we have learned from our pilot project relating to food insecurity, nutrition, economic development, and public-private partnerships. And a special thank you to my fellow witnesses for sharing their strategies to reduce food insecurity through the implementation of nutrition incentive programs.    I manage Bluegrass Farm to Table, an initiative of the City of Lexington's Office of Economic Development. Bluegrass Farm to Table serves as a mechanism to increase coordination and collaboration among stakeholders at all levels of the local food system--from production to consumption--and to improve the nutritional health in the region. FINI presents an incredible opportunity to tackle both of these priorities. In partnership with Blue Grass Community Foundation, Bluegrass Farm to Table manages the Bluegrass Double Dollars Pilot Program funded by FINI. Bluegrass Double Dollars aims to improve access to affordable, locally grown produce for low-income individuals participating in the Supplemental Nutrition Assistance Program (SNAP). Simultaneously, Bluegrass Double Dollars strives to stimulate Kentucky's farm economy by increasing the demand for locally grown fruits and vegetables.    Based on our experience as a FINI pilot project recipient, we recommend that the Committee provide USDA with an increase of resources to:  &lt;bullet&gt; encourage stronger multi-sector partnerships;  &lt;bullet&gt; increase coordination and collaboration with state SNAP         offices; and  &lt;bullet&gt; develop a community of practice for FINI grantees.Background    One in five Kentucky residents (828,000) participates in SNAP--the majority of whom are children, elderly, or the disabled. 16.4% of all households are considered food-insecure.\\1\\ Additionally, Kentucky has the 5th highest prevalence of obesity in the nation (prevalence = 33.2%).\\2\\ High rates of obesity correlate with high rates of chronic health conditions such as diabetes, hypertension, heart disease, and certain cancers. Therefore, it is imperative to continue to find solutions to address these problems, particularly among low-income and food-insecure individuals.---------------------------------------------------------------------------    \\1\\ Center on Budget and Policy Priorities analysis of data from USDA Food and Nutrition Service, FY 2013.    \\2\\ ``The State of Obesity: Better Policies for a Healthier America'' from Trust for America's Health and the Robert Wood Johnson Foundation, 2014.---------------------------------------------------------------------------    A documented strategy to help reduce many of the aforementioned chronic health conditions is to increase the consumption of fruits and vegetables. However, low-income individuals are often unable to locate, purchase, and prepare healthier food items. Two of the critical barriers to the purchase and consumption of fresh fruits and vegetables among low-income Lexington residents are the lack of access and affordability. Specifically, access is particularly problematic for low-income individuals who live in the pockets of food deserts where fresh fruit and vegetables are not available. The fresh fruits and vegetables that are available, particularly those that are locally grown, are often too expensive for low-income individuals to purchase. The Bluegrass Double Dollars program aims to reduce these barriers.    Kentucky enjoys a rich agricultural history, largely steeped in tobacco production. Over time, farmers have begun to transition to vegetable production. Most farms in Kentucky are small (under 50 acres) and depend on direct-to-consumer markets to sustain their farm enterprises. With a ready and growing supply of local produce and other farm products, many of these small to medium-sized producers are eager to grow their customer base and welcome the opportunity to partner with programs, such as Bluegrass Double Dollars.Bluegrass Double Dollars Pilot Program    The Bluegrass Double Dollars program is a collaborative public-private partnership between Bluegrass Farm to Table and Blue Grass Community Foundation. The program is designed to make local produce more accessible to SNAP participants in the Lexington area while expanding the market for local food producers. Specifically, the program allows SNAP beneficiaries to double their purchasing power to buy locally grown fruits and vegetables at three pilot sites--a farmers' market, a cooperatively owned grocery store, and a corner store. The program provides incentives for Kentucky-grown produce coupled with targeted community outreach and education to help SNAP participants become more familiar with and more willing to purchase locally-grown produce. According to our pilot project evaluation data, 90% of respondents said the Bluegrass Double Dollars program encouraged them to purchase more locally grown fruits and vegetables and that they would be more likely to shop at venues where they know the program will be offered.    This collaborative economic initiative is focused on supporting both Kentucky SNAP participants and Kentucky farmers. In the first 6 months of our pilot, the average redemption rate of our incentive vouchers was nearly 80%, and the total value of Double Dollars redeemed for Kentucky grown produce was just over $15,000--a win-win for SNAP recipients and Kentucky farmers. The pilot program has gained momentum as participation and redemption have increased nearly each month the program has been in place.Value of FINI    The Food Insecurity Nutrition Assistance Program represents a unique opportunity to meet the two primary goals of Bluegrass Farm to Table-supporting food-related agricultural development and the improvement of nutritional health in the region. The architects of FINI should be commended for providing multiple levels of funding (pilots, projects, and large-scale projects) to develop programs with varying scales and scopes as opposed to taking a one-size-fits-all approach. The pilot funding parameters afforded our planning team in Lexington a great deal of flexibility when designing and implementing our incentive program.    There is tremendous value in nonprofits partnering with the Federal Government on incentive programs such as FINI. It demonstrates that the Federal Government is committed to promoting healthy eating and reducing food insecurity. Having the FINI pilot project grant also allows us to leverage support and buy-in from partner organizations to help sustain the Bluegrass Double Dollars program. Because our pilot demonstrates the benefits of healthy eating and supporting local farmers, it allows us to partner with stakeholders and funders in both the health and agriculture sectors.Lessons Learned and Recommendations from the Field    FINI provides a strong foundation for developing sustainable incentive programs to improve healthy eating among food-insecure individuals. It also provides a unique opportunity to support local food producers. To build on this momentum and to improve future iterations of the program, we recommend that the Committee provide USDA with an increase in resources to:  &lt;bullet&gt; Encourage strong multi-sector partnerships;  &lt;bullet&gt; Increase coordination and collaboration with state SNAP         offices; and  &lt;bullet&gt; Develop a community of practice for FINI grantees.Encourage Strong Multi-Sector Partnerships    Strong multi-sector partnerships should be encouraged in an effort to develop holistic and sustainable incentive programs that encourage healthy eating among SNAP recipients. The FINI program provides a unique opportunity for building stronger partnerships between the food security and local agriculture sectors because it gives preference to projects that incentivize locally or regionally sourced produce. Future Federal opportunities should build on this momentum. Practitioners working on food security and local food systems should be challenged to work with one another to develop creative and sustainable solutions that improve access to healthy, affordable, local food while stimulating the local and regional food economies. Increased synergy between these two sectors has the potential to maximize funding, leverage existing resources, and foster multi-sector collaboration.    Bluegrass Farm to Table and its partner organizations were thrilled to see FINI as a provision in the Agriculture Act of 2014 (Farm Bill) because it allows for increased collaboration between organizations working to address food insecurity and those working to build strong local food economies. The key multi-sector partners involved in Bluegrass Double Dollars include: a community foundation, a cooperatively owned grocery store, a farmers' market, a corner store located in a food desert, Cooperative Extension/SNAP Education Staff, and the University of Kentucky's College of Agriculture, Food, and Environment.Increased Coordination and Collaboration with State/Local SNAP Offices    A more comprehensive approach to educating SNAP recipients about where they can use their SNAP benefits, particularly places that routinely offer healthy, locally produced food is needed. Specifically, we recommend that future FINI requests for proposals incentivize state and local SNAP offices to work collaboratively with FINI grantees to help educate SNAP beneficiaries about where they can use their SNAP benefits for the purchase of produce and encourage them to take advantage of incentive programs such as Bluegrass Double Dollars. We heard stories from program participants that it was not until they heard about the Bluegrass Double Dollars Program that they realized they could even use their SNAP benefits at the farmers' market and the cooperatively owned grocery store. We recognize that educating SNAP users about locations where they can take advantage of the incentive program is an integral component of the program; therefore, we will continue to invest in education and outreach aimed at a wider audience of SNAP users in the Lexington.    Because state and local SNAP offices are tasked with the responsibility of issuing and managing benefits, beneficiaries view them as a trusted source of information. If state and local SNAP offices are incentivized to make healthy eating, especially from local and regional markets, an internal priority, SNAP recipients will be encouraged to use their benefits for locally grown produce, which directly benefits local farm economies. Because all SNAP beneficiaries come into contact with their state and/or local office while participating in the program, partnering with these offices is a much more efficient way to ensure that all possible beneficiaries are receiving pertinent information related to available incentive programs than grantee organizations operating alone. Cultivating this buy-in from state and local SNAP offices is critical to the future success of programs like FINI.Develop a Community of Practice for FINI Grantees    In the spirit of maximizing Federal dollars and minimizing redundancy, we recommend that the USDA develop a community of practice for organizations implementing incentive programs through FINI to share best practices and lessons learned on a regular and recurring basis. This peer-to-peer technical assistance network would streamline the development of resources on which all FINI grantees are working, including technology development, logistics, and education.    Developing the appropriate technology to issue and redeem incentives is time and resource intensive. Our pilot, and likely others, would benefit tremendously from utilizing a standardized technology platform that could be easily tailored to different types of venues (farmers' markets, retail establishments, etc.) while allowing for streamlined incentive issuance, redemption, and reporting/data collection. It is our understanding that several of the programs that have been implementing incentive programs have experimented with various types of technological applications, yet none have found a tool that works well for both farmers' market and retail settings. Working collaboratively in a community of practice to develop such a tool would be tremendously valuable.    Currently, there is no incentive for grant recipients to work together. Establishing a community of practice would ensure that Federal resources are being maximized in the most efficient manner. Additionally, because many of the pilot projects involve unique partnerships, it would benefit the entire group to learn from and collaborate with organizations from different sectors. Increased coordination and collaboration among government entities, nonprofits, and the private sector could have tremendous positive implications for the success of SNAP incentive programs.Conclusion    In conclusion, while the FINI program provides us with the opportunity to bridge the gap between the important work of reducing food insecurity and stimulating local food systems, more work remains to ensure that future funding opportunities encourage strong multi-sector partnerships; coordination and collaboration with state/local SNAP Offices, and the development of a community of practice for FINI grantees. Again, I sincerely thank Chairwoman Walorski, Ranking Member McGovern, and Members of the Subcommittee for providing me with the opportunity to share our lessons learned from the field.    The Chairwoman. Thank you, Dr. Wright. Ms. Kiley, we are thrilled to have you today, and you can proceed with your testimony.</t>
   </si>
   <si>
-    <t>Kiley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kiley. Chairwoman, Ranking Member, and Members of the Subcommittee, thank you for having me. I am already really awed by what I am hearing, and excited about it as a member that is actually using these benefits, and helping my family become healthier, building a stronger community, and it is really wonderful, so thank you.    I want to thank you guys for opportunities. There are so many opportunities I am thankful for, for a part of a community, and a nation, that lets voices be heard, and really working with that to change. I have a lot to say about SNAP. I have a lot to say about WIC. I know I am not here to talk to WIC, but these are things that have taken my family and held us up in a time when we really needed it. And that is really important for our communities to see. So many of these opportunities--I know that we talk about--don't come easily. Just the fact that there is a current Subcommittee hearing on this lets me know that there is work to be done, right? And those programs are always changing, and are always needing more eyes and more ears to see them, and to help them, and guide them, so I thank you for that. I have been a participant in the SNAP program and the WIC program, the WIC program for 4 years--it is coming to an end as my son turns 5 next month--and the SNAP program for at least 3 years. I foresee my time in both programs really coming to an end soon. But as I do that, I really feel the need to be a conduit for change, a voice for really continuing, and letting these things grow.    Hands down my favorite part about the SNAP program are the incentives that I get at the farmers' market. Not only because I have really grown a personal relationship with this market, but because it is such--hands down, ``I am getting something for free,'' right? But to know that I can go to a market, and the Crossroads Market allows me to get $15 shared every week that I go. They will match that, and it is really important. I have used this particular market to feed my family in a healthy way through the winter. Literally, there is a beef stick from the market in my bag. What I do is I go and I buy items that I know are going to last, because I don't have this market in the winter. So I go, and I spend all, and I buy things that will last, onions, potatoes, meat that I can freeze, and it is going to see me through.    So one of the things that is frustrating is that these markets are out there, and, as you said, these can't be used if people don't know about them, right? We do find that the momentum and the--just hearing that you have this extra money to buy fruits and vegetables is really important. But, if you don't know about it, finding where these markets are, I find that the advertising, or the listing of it on their websites is very difficult to decipher. I know what I am looking for, so I know what to ask, but there are a lot of people that don't, right? I have a food education. I have a relationship with food that gives me the knowledge to actually begin to already know how to plan meals that are healthy. There are a lot of community people that don't know that, right? They haven't been brought up that way. My son will be brought up that way, so it is different.    So for me it hasn't affected the health of the way I cook, because we were already so healthy, but it absolutely affects the ease at how I do it, the quantity of what I do, what I cook, and what I purchase for my son, and it has been really important. But getting this information out there and streamlined--for one example, how many different names do we have to have for this program? I mean, Double Dollars, $5, Triple Your Money Here, is that something that we want to streamline? Is that something that makes more sense? I know WIC in Ohio, right? I know WIC in Kentucky. But Double Dollars, do I know that is what are we calling it? And that is important for people to see, for them to see, the branding. I mean, that is how we work, right? I mean, we all know what Pepsi is, right? So what is the branding for this?    You will notice that I am not really reading off of the statement, because I don't work as well reading, so one of the things I would be really excited to think about using this at a grocery store, but one of the things that this actually does for me that is important is it takes us out of that large chain grocery store, and it takes us into this community with farmers, right, with other families that I would never meet. I would never meet these families, probably, and their children. And it gives you a community with--where things are coming from. Now, the farmer might come from 2 hours away in Pennsylvania, right, but I see them every single week for 3, 4 months on a row, right? And they know. ``Hey, Kiley, where were you? I haven't seen you for 2 weeks, what is going on? Here, give your son an apple.'' Like, that is the kind of thing that we need to see, to really get to know people, right? To strengthen our communities, and talk about food. So thank you.</t>
   </si>
   <si>
-    <t>Cooper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cooper. Chairwoman Walorski, Ranking Member McGovern, and Members of the Subcommittee, thank you so much for this opportunity to bring you warm greetings from the great State of Texas, our Congressional delegation here, and our county government, and also our mayor, Ivy Taylor. I am pleased to represent the San Antonio Food Bank, which has a great staff who work diligently, and a wonderful board, with executives from companies like Valero Energy, and USAA, and even our World Champion San Antonio Spurs Greg Popovich. So just feel that love and support. We are, as a food bank, a member of a state association, Feeding Texas, where there are a little over 20 food banks that work within the boundaries of the State of Texas, and we are a part of a national network, Feeding America, where there are 200 food banks that work together to feed and serve more than 46 million people in need, which includes 12 million children and about seven million seniors.    The San Antonio Food Bank actually serves 16 counties of the great State of Texas, and within those 16 counties, we have about 530 different partner organizations. They provide food to about 58,000 people each week. And we basically frame our work into three different areas, food for today, food for tomorrow, and food for a lifetime. As clients are in need, that stress of being food-insecure, and being without food, they might call or come to the food bank. We want to meet that immediate need of hunger through a referral to one of our 530 different nonprofit organizations. We then want to have a conversation around food for tomorrow. And what we do there is help those families with application assistance in many Federal programs, to include SNAP, WIC, the Children's Health Insurance Program, Medicaid, TANF, and long-term care. In that process we are able to work with our state to determine eligibility, and we are then able to have a conversation around employment.    In our core belief, we believe that people should work according to their ability, and receive according to their need, and that opportunity for those individuals receiving assistance to take advantage of our workforce training opportunities there at the food bank, whether in culinary arts, or warehouse training, or just direct job placement, moves them to a place of self-sufficiency, and gives them the dollars that then they can make decisions on. And we have a very robust nutrition education program in that last tier of Food For A Lifetime, which is really about educating families on how to get the best nutrition for their dollar, and how to leverage their dollar to get the best nutrition. We were so privileged to be chosen as a FINI grant recipient, and we have launched a strategy working with our local Children's Hospital of San Antonio, and several clinics, and a major grocery retailer, H-E-B. And we have identified expecting mothers that are SNAP eligible that enter the program, and receive an incentive based on participating in a nutrition education curriculum that is orchestrated at the store level. Those individuals are taught how to shop a grocery store, and leverage the dollars that they have.    Time and time again we see the direct correlation between the poverty line and the waste line. San Antonio has high rates of diabetes, obesity, heart disease, and we believe in what Ranking Member McGovern's mother believed, that the apple a day does keep the doctor away, and that families struggle to get access to good, healthy food. And there are lots of barriers, whether that is income, or knowledge, or geography. The food bank is working to try to bring together the partners in public and private partnerships to try to remedy that.    It is humbling when we can provide the right food in the right amounts at the right time to someone that is hungry. When someone is in need--and we believe that hunger is a symptom of poverty, and people that are in poverty have lots of issues, but someone that is hungry just has one issue. And until we solve that one issue, it is tough to move folks forward to that place of self-sufficiency. So thank you so much for the opportunity to share just a few thoughts.</t>
   </si>
   <si>
-    <t>Petee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Petee. Good morning, Chairwoman Walorski, Ranking Member McGovern, and Members of the Nutrition Subcommittee. It is my pleasure to be here today as the Executive Director of The Root Cause Coalition, as well as the Chief Advocacy Officer for ProMedica, a Toledo, Ohio based nonprofit health system that serves 27 counties of northwest Ohio and southeast Michigan. I have spent the better part of my career working with clinicians, administrators, policymakers, health care leaders, and community partners to address health disparities in ProMedica's service area. As we battled epidemics of low birth weight, childhood obesity, diabetes, heart disease, cancer, and other chronic diseases, we, like many health care providers across the country, began to ask, why? Why are we seeing such high rates of these issues in our community?    From this simple question, ProMedica began a journey that, in partnership with the AARP Foundation, founded The Root Cause Coalition, to bring the full power of the health care community to bear in addressing the social determinants of health, with specific focus on hunger as a health issue. If I have learned anything from this work, and this is the most important thing that I hope the Committee will take away from my short time with you today, is that hunger is a health issue, and food is the best medicine.    It is because of this indisputable fact that the work of the Subcommittee to strengthen our nation's nutrition policy is so vitally important. Your work on these basic building blocks, especially the SNAP Program, have far-reaching impacts on many issues at the foundation of a strong future for our country. Proper nutrition, especially during an individual's developmental years, has a direct impact on the long-term productivity, economic status, and health of that individual, and ultimately entire communities. The programs overseen by this Committee are about more than the immediate needs of hungry children, adults, and seniors. These programs are core investments in the health and well-being of your constituents, and our nation's ability to adapt to an ever-changing global economy.    As a nation, the health care community in particular are coming to terms with the realization that the social determinants of health, especially access to proper nutrition, have a direct impact on an individual's health. Lack of access to proper nutrition not only leads to and exacerbates a plague of chronic physical and mental health conditions, but it also impedes brains development, educational outcomes, and economic viability. It limits access to safe, affordable housing and transportation, and leads to disciplinary and public safety concerns. Proper nutrition is the cornerstone of our ability to ensure the lifetime health of individuals, communities, and our nation. Without it we cannot hope to have a lasting impact on a litany of other social determinants affecting community health.    But this is more than just an altruistic discussion, it is about dollars and cents. The cost of hunger to the health care community alone totals nearly $130.5 billion every year, and the cost to every U.S. citizen over a lifetime is on pace to reach roughly $42,400. We know that ensuring pregnant women have access to nourishing food throughout pregnancy increases the chance for a full term, healthy weight baby. To put that in perspective, in 2008 approximately ten percent of births nationwide included a diagnosis of pre-term or low birth weight, but those births accounted for nearly 45 percent of all infant hospitalization costs, or over $10 billion. These low birth weight and pre-term babies are also at a greater risk of delayed development, chronic disease, and a lifetime of poor health.    We know that hunger is a health issue, we know that food is the best medicine, and we know that the SNAP Program is helping to address the immediate needs of the most vulnerable in our communities. We also know that Congress, and programs such as SNAP, are not, and should not, be the only solution. SNAP is an essential safety net that must remain strong to ensure the most vulnerable in our communities do not fall through the cracks. But the health care industry must be part of a more permanent solution to addressing basic needs as well. That is why we at ProMedica have begun to screen patients for food insecurity in our acute care and physician office settings. We have food pharmacies that replace the cycle of medicine being used to treat conditions that nutritious food can treat more effectively. ProMedica has even eliminated a food desert in Toledo's inner city by opening a 5,000 square foot grocery store that is now being used as a model not only for food access and affordability, but for job training and economic growth. And through The Root Cause Coalition, we are working with organizations across our community, and across the country, that showcase creative, effective partnerships in addressing food insecurity, nutrition education, and even economic development so that every citizen can reach his or her highest potential. Thank you for your time this morning.</t>
   </si>
   <si>
@@ -130,9 +112,6 @@
     <t>412400</t>
   </si>
   <si>
-    <t>Eric A. "Rick" Crawford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Crawford. Thank you, Madam Chair. We hear this term food desert quite a bit, and it characterizes an area with limited access to healthy foods, but there is a difference between urban and rural food deserts that probably we don't talk about very often, and I represent a very rural district. According to USDA, an urban food desert is an area that is 1 mile or more from healthy food providers, but if you live in an area like I do, in rural America, you may live 10 miles or more, and in remote areas, it is even worse than that, from your nearest grocery store or farmers' market.    So apart from the obvious geographic differences between urban and rural food deserts, can you discuss the distinct challenges that urban and rural food deserts present, and how that might merit a different response from both policymakers and those on the ground like yourselves? And anybody is welcome to weigh in on that, whoever wants to go first.</t>
   </si>
   <si>
@@ -166,9 +145,6 @@
     <t>412615</t>
   </si>
   <si>
-    <t>Pete Aguilar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Aguilar. Thank you, Madam Chair. Mr. Cooper, in my district, farmers' markets that participate in SNAP have, at times, encountered challenges. And I wanted to ask about your experience with this. And despite efforts, I read in your testimony, your knowledge of these issues, and I wanted to see what do you think might be the cause? Despite our best efforts, and some of our recruitment for these farmers' markets, and offering that access to folks, what can we do to improve that access? And I have some questions for Dr. Hesterman and Dr. Wright as well.</t>
   </si>
   <si>
@@ -190,9 +166,6 @@
     <t>412436</t>
   </si>
   <si>
-    <t>Dan Benishek</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you, Madam Chair. Dr. Hesterman, thanks for being here today.</t>
   </si>
   <si>
@@ -247,9 +220,6 @@
     <t>412558</t>
   </si>
   <si>
-    <t>Michelle Lujan Grisham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lujan Grisham. Thank you, Madam Chair, and thanks to the panel. Given that my state is still one of the hungriest states in the country, New Mexico, it is great to hear about the kinds of ideas and incentives that allow you to do more with what you have, and making it as healthy as possible. I did the SNAP Challenge, and without a dollar to dollar match, notwithstanding the incentive, there isn't enough to buy fresh fruits and produce. I think when I did the challenge, in order to have enough protein, the only fruit I could buy was a couple of bananas. And so it just isn't enough to sustain yourself or your family.    And so I am very excited to hear about the organization's work in Michigan, and the Double Up Food Bucks. And I have a public health background, so all of this is exactly the way in which these programs were intended to work. But we find that they need an additional boost to do that. I think these kinds of incentives are especially important for poor states like New Mexico, and any other areas in the country that have high rates of food insecurity, poverty, obesity, and other diet related illnesses.    I want to tell you that, in fact, the Double Up Program is very successful in New Mexico. We are seeing more low-income families being able to purchase fruits and vegetables. And, in fact, according to a report, the New Mexico Farmers' Marketing Association put out this month 88 percent of their customers increased the amount of fresh fruit and vegetables they purchased because of the program. In 2015 alone the Double Up Program benefited more than 4,000 low-income New Mexicans. So not only are we improving nutrition and health outcomes in communities, but we are seeing Double Up do the other thing, which is create more economic development opportunities, particularly for farmers. And we are seeing a resurgence of young people interested in farming in both rural and urban communities. We saw 195 percent increase in total EBT sales through the Farmers' Market Association, and that impacted 60 percent of New Mexico counties, and 60 percent of the direct market farmers statewide. We are also expecting the program to generate more than $4 million over the next 4 years.    I am sure you already have all these stats, about all the different impacts. And I have been listening in earnest, of course, but really interested in the points we are making about really connecting and coalescing our nonprofit and charitable community in this effort in providing these kinds of incentives. But notwithstanding the wonderful results in New Mexico, the reality is we still have one of the hardest hit economies in the country, with some of the highest poverty rates in the country. We are, in fact, the only state in the nation that is losing population because there are no job opportunities in the state. We are in an interesting battle about what we do about work requirements when we can't find work anywhere in the state. And when we had our Human Services Secretary talk about work incentives a year ago--she is no longer with that department--she talked about the great jobs in oil and gas, and there are no jobs in oil and gas in our state, and we are really struggling.    So I am really excited to tell you that, in spite of that situation, I believe that New Mexico is the only state that has state funding over the long-term to secure this program so that the Double Up Program is available. And the reason I think that that is really important, and want to get your ideas about how we encourage other states with the time we have left, is that our charitable organizations in this environment are also stretched too thin. So, to take advantage, I do think that you want to have local governments, state governments, engaged. What are you doing to get more states to think about long-term funding for these kinds of ideas?</t>
   </si>
   <si>
@@ -262,9 +232,6 @@
     <t>412536</t>
   </si>
   <si>
-    <t>Rodney Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Madam Chair, and this is a great opportunity for those of us who sat around these tables and crafted the farm bill to kind of see and hear what our policy changes that we put into effect, and new and innovative approaches, how they are being implemented in the marketplace.    I want to follow up a little bit on what my colleague Mr. Benishek asked you, Dr. Hesterman, about the ability to put point of sale equipment into farmers' markets. I know that part of our policies that we put forth allows the states to get from the USDA upwards of $4 million to help with these point of sale equipment purchases. Can you tell me, has that program been effective, or are you taking advantage of it at any of the ones that you see in your community?</t>
   </si>
   <si>
@@ -346,9 +313,6 @@
     <t>412607</t>
   </si>
   <si>
-    <t>Alma S. Adams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Madam Chair, and Ranking Member McGovern. Thank you all for your testimony. It has been very interesting to hear the stories. Farmers' markets have become a very popular way to improve fresh food options in food deserts throughout the 12th District, and we have a lot of them in the 12th District of North Carolina that I represent. Guilford County is currently using USDA funding to support farmers' markets in food deserts, including the Mobile Oasis Farmers' Market in Greensboro and High Point. Food Insecurity Nutrition Incentive Grants, and the Farmers' Market Promotion Program are vital programs for supporting one of the few grocery store alternatives available to residents living in food deserts.    As mobile and seasonal retailers in farmers' markets usually use wireless equipment for processing SNAP benefits, this requires a farmers' market to contract out equipment, and to pay a transaction fee for every purchase that uses SNAP benefits. For smaller business owners or farmers, this is a significant barrier to allowing a SNAP recipient to use their benefits to purchase fresh produce.    Dr. Hesterman, what long-term solutions would you recommend for USDA in order to meet Congress's intent that healthy food retailers not face cost barriers to serving participants in the SNAP Program?</t>
   </si>
   <si>
@@ -367,9 +331,6 @@
     <t>412317</t>
   </si>
   <si>
-    <t>Glenn Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Madam Chair, thank you so much for this hearing. Thanks to all the panelists for not just being here, but for the work you do in your communities each and every day. This last month I really had the privilege and honor, I hosted a couple of events. The first was at our 100th annual Farm Show in Harrisburg, Pennsylvania, and we did a listening session. I was joined by several of my colleagues, including the full Agriculture Committee Chairman, Mr. Conaway from Texas, and we really heard from a lot of different aspects of agriculture, but there was a heavy emphasis on food insecurity.    And I heard from just a great champion, Karen Wooding from the Central Pennsylvania Food Bank, and then most recently--just a couple weeks ago I did a visit to a food bank in my home county. We spent some time there talking with the people that were there, looking for nutrition for themselves and their family members. And the wonderful people that run, dedicate themselves, a lot of volunteers, including a pediatrician who was there volunteering. As a former health care professional, I mean, good nutrition is a fundamental building block to good health, there is no doubt about it. And the fact that we are starting to explore that more consciously, and build upon that, and build collaborations, that is part of the fruit we are hoping to yield from the work that is done here. I am not a--I am not going to hear--I don't think there is--we have no preconceived outcome here. I think we want to make this better. We want to make sure we are serving people, and we want to make things operate efficiently, and I am proud of the work that we are doing.    So let me follow up a little bit. Dr. Hesterman, we know there are Americans who are not consuming enough fruits and vegetables, which is why the incentive dollars used specifically for fruits and vegetables make sense. However, some would argue that also allowing incentive dollars to be used for lean meats, dairy, eggs--I saw all that, and I heard about that, and I actually saw that in my food bank visit, the whole use of freeze flash technology, or flash freeze, whatever order that is, it is just amazing what people are able to get access to. It gives it a much longer shelf life, it is nutritious, it is tasty. Should we consider allowing these incentive dollars to be used for those other commodities, lean meats, dairy, eggs, you can fill in the blank, to provide additional nutritional benefits to the consumer, and do you envision most incentive programs will remain focused on fruits and vegetables, or will expand to healthy foods throughout the store and the market?</t>
   </si>
   <si>
@@ -391,9 +352,6 @@
     <t>412642</t>
   </si>
   <si>
-    <t>Brad Ashford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson.--several decades. But even then, we still remember how uncomfortable it was to walk into the local IGA. And so I appreciate those types of innovations. Thank you.    The Chairwoman. The chair recognizes Congressman Ashford, for 5 minutes.    Mr. Ashford. Thank you, Madam Chair. This is really exciting stuff. And I know we are similar to Kentucky in some ways, we are a rural state, Nebraska, and we have an urban area in Omaha. Last fall we had a conference sponsored by former Lieutenant Governor Maxine Moul from Nebraska, who is the USDA Rural Development ag person in the state. It was very, very, very well attended by both rural and urban people. These grants that have been handed out are really creative, and, looking through them, what a great program for the country.    I have a question--and thank you, Dr. Hesterman, for your leadership in getting this started. Someone has to get it started, I guess, and you did, so it is really great work. I had spent a number of years running a housing authority in Omaha, and it is a public housing authority, with residents living throughout the community, and in public housing as well, but in scatter site housing. Obviously many of the residents qualified for SNAP. And I have asked this before when we have discussed these programs generally, I would ask Dr. Wright. In Lexington, which is a beautiful city, by the way. In Lexington, how about the housing authorities there? Was that part of your partnership initiative?</t>
   </si>
   <si>
@@ -416,9 +374,6 @@
   </si>
   <si>
     <t>412659</t>
-  </si>
-  <si>
-    <t>Stacey E. Plaskett</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Plaskett. Thank you. Thank you, Madam Chair, and thank you also for all being here. Ms. Kylie, I was really moved by your written testimony, and, as a mother, I am very keenly aware, and thank you for the importance of having your children be at the food markets as well, the farmers' markets, to have them grab healthy habits with regard to--and I loved how you are putting the face of the farmers who are creating their food. I think that that is really important in the kind of world that we live now. So many of our children are in urban areas, or in areas where they don't meet farmers, to know that these are the people that are growing your food. And it also really does something great for the farmers as well, to see young people who are going to be eating the foods that they are working to create for them.    I wanted to ask you, Dr. Wright, about one of the things that you were talking about. You talked about the best place to inform SNAP recipients of the Double Dollars Program is the state SNAP offices. And it is interesting, and unfortunate, because we know that that outreach is no longer funded by Congress, which at one time funded it. Do you think that that is a good investment of our funding source, to be able to use those offices? I know that our local government does not have the capacity to have someone specifically for that. Have you seen any demonstrable evidence of that being able to assist in the utilization of the program?</t>
@@ -832,11 +787,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -856,13 +809,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -882,13 +833,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -908,13 +857,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -934,13 +881,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -960,13 +905,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -986,13 +929,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1012,13 +953,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1038,13 +977,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1064,13 +1001,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1090,13 +1025,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1116,13 +1049,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1144,11 +1075,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1168,13 +1097,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1194,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1222,11 +1147,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1246,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1274,11 +1195,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1298,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" t="s">
-        <v>38</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1324,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1350,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1376,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1402,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1428,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
         <v>37</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1454,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1480,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" t="s">
-        <v>38</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1506,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1532,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" t="s">
-        <v>38</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1558,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1584,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1610,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1636,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1662,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1688,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1714,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" t="s">
-        <v>58</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1740,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1766,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" t="s">
-        <v>58</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1792,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1818,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1844,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
-      </c>
-      <c r="G41" t="s">
-        <v>58</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1870,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1896,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1922,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
         <v>58</v>
-      </c>
-      <c r="H44" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1948,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1974,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" t="s">
-        <v>58</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2000,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2026,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" t="s">
-        <v>58</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2052,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2078,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G50" t="s">
-        <v>58</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2104,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2130,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>57</v>
-      </c>
-      <c r="G52" t="s">
-        <v>58</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2156,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
-      </c>
-      <c r="G53" t="s">
-        <v>58</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2182,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>76</v>
-      </c>
-      <c r="G54" t="s">
-        <v>77</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2208,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2234,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>76</v>
-      </c>
-      <c r="G56" t="s">
-        <v>77</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2260,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>81</v>
-      </c>
-      <c r="G57" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2286,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2312,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>81</v>
-      </c>
-      <c r="G59" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2338,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2364,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>81</v>
-      </c>
-      <c r="G61" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2390,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2416,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
-      </c>
-      <c r="G63" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2442,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2468,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2494,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2520,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
-      </c>
-      <c r="G67" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
         <v>82</v>
-      </c>
-      <c r="H67" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2546,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2572,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2598,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2624,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2650,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2676,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>81</v>
-      </c>
-      <c r="G73" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2702,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2728,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>81</v>
-      </c>
-      <c r="G75" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2754,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2780,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>81</v>
-      </c>
-      <c r="G77" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2806,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2832,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>81</v>
-      </c>
-      <c r="G79" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2858,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2884,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>81</v>
-      </c>
-      <c r="G81" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2910,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>81</v>
-      </c>
-      <c r="G82" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2936,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>109</v>
-      </c>
-      <c r="G83" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2962,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2988,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>109</v>
-      </c>
-      <c r="G85" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3014,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3040,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>109</v>
-      </c>
-      <c r="G87" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3066,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>116</v>
-      </c>
-      <c r="G88" t="s">
-        <v>117</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3092,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3118,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>116</v>
-      </c>
-      <c r="G90" t="s">
-        <v>117</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3144,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3170,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>116</v>
-      </c>
-      <c r="G92" t="s">
-        <v>117</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3196,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3222,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>124</v>
-      </c>
-      <c r="G94" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3248,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3274,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>124</v>
-      </c>
-      <c r="G96" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3300,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3326,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>124</v>
-      </c>
-      <c r="G98" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3352,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3378,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>124</v>
-      </c>
-      <c r="G100" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3404,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>133</v>
-      </c>
-      <c r="G101" t="s">
-        <v>134</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3430,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3456,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>133</v>
-      </c>
-      <c r="G103" t="s">
-        <v>134</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3482,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3508,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>133</v>
-      </c>
-      <c r="G105" t="s">
-        <v>134</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98679.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98679.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,24 +55,45 @@
     <t>400263</t>
   </si>
   <si>
+    <t>McGovern</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McGovern. Well, thank you, Chairwoman Walorski, for holding today's hearing, and I want to thank all the witnesses for being here. I am happy to see a familiar face in Barb Petee from The Root Cause Coalition. I look forward to hearing everybody's testimony.    Incentives for maximizing Federal nutrition programs is a relatively new area of policy, and one that I think holds a lot of promise. Through programs like SNAP EBT at farmers' markets, the Seniors' Farmers' Market Nutrition Program, and the WIC Farmers' Market Nutrition Program, we can get more bang for our buck with our Federal nutrition dollars. And there are a number of creative initiatives happening all over this country that are worth focusing on.    I am impressed with the growing body of research that is looking at hunger as a health issue, and food as medicine. When I was growing up, my grandmother always used to say an apple a day keeps the doctor away. I wish she was still alive to tell her she was right. But we know that hunger can exacerbate underlying medical conditions like diabetes, heart disease, and cancer, and can result in life threatening complications. Not only that, hunger can result in more trips to the emergency room, and more hospitalizations, which only increase health care costs all across the board. But hunger can also be one of the most treatable health conditions. We have the resources, and we know the solution. We just need to connect the dots, which is where these incentive programs come in.    I have had the pleasure of working with Gus Schumacher, who served, first in the Clinton Administration, and then in a variety of capacities, and currently at Wholesome Wave. I have seen firsthand the way his organization has been able to leverage Federal dollars to double, and even triple, fresh fruit and vegetable purchases at farmers' markets for seniors and low-income families. It is really impressive. And we ought to be thinking about how we can expand these incentive programs even more.    During our Subcommittee hearing a few weeks ago, we heard about the growing problem of hunger among veterans and military families. Why not create a Veterans' Farmers' Market Nutrition Program? Veterans could get vouchers at their local VA clinics to purchase fresh fruits and vegetables. And, in addition, why not encourage VA clinics to hold farmers' markets at their facilities? These kinds of incentives programs are not only good for consumers, but they are good for the farmers who grow the food. They are economic drivers in the local economy, and have a positive multiplier effect. We heard that firsthand from farmers in yesterday's Biotechnology, Horticulture, and Research Subcommittee hearing. And there is also good data emerging showing that incentive programs can lead to real savings in the long run, in terms of improved health outcomes, higher educational attainment, and increased productivity in the workforce. Nutrition incentive programs are a sound investment, and I look forward to today's conversation, and again thank you all for being here.    The Chairwoman. Thank you, Mr. McGovern. The chair would request that other Members submit their opening statements for the record so the witnesses may begin testimony, and to ensure there is ample time for questions. The chair would also like to notify Members that they will be recognized for questioning in order of seniority for Members who were here at the start of the hearing. After that, Members will be recognized in order of arrival. I appreciate Members' understanding.    Witnesses are reminded to limit their oral statements to 5 minutes, and there is a countdown clock in front of you. All of the written statements will be included in the record. So I would now like to welcome our witnesses to the table. Dr. Oran Hesterman, CEO, Fair Food Network, Ann Arbor, Michigan. Dr. Ashton Potter Wright, Bluegrass Farm to Table, Office of the Mayor, Lexington, Kentucky. Kathleen Kiley, Crossroads Farmers' Market shopper, and current SNAP recipient, Washington, D.C. Eric Cooper, President and CEO, San Antonio Food Bank, San Antonio, Texas. And Barbara Petee, Executive Director, The Root Cause Coalition, Washington, D.C.    Dr. Hesterman, please begin with your testimony when you are ready.  STATEMENT OF ORAN B. HESTERMAN, Ph.D., PRESIDENT AND CHIEF </t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Hesterman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Hesterman. Thank you, Chairwoman Walorski, Ranking Member McGovern, and distinguished Members of the Subcommittee, including my Michigan representatives, Mr. Benishek and Mr. Moolenaar. Good morning. Thank you for holding today's hearing.    Fair Food Network's signature program is Double Up Food Bucks. Our experience shows that matching SNAP benefits with incentives for locally grown produce is a cost-effective way to reduce hunger, improve dietary health, and stimulate local economies that create jobs. There are three main points that I would like to leave you with today. First, health food incentives work. Second, the Food Insecurity Nutrition Incentives grant program, or FINI, that Congress created in the 2014 Farm Bill is supporting excellent work nationwide. And third, such results warrant supporting and expanding this public-private partnership.    I founded Fair Food Network in 2009, at a time when 17 percent of Michiganders were receiving SNAP. Knowing that I was in a state with a strong agriculture sector, it made sense to try a SNAP incentive program modeled after one that I had seen in Maryland a few years before, and you are going to hear a little bit more about that program in a minute. The design is simple. For every dollar of SNAP a customer spends on locally grown produce, they get an additional dollar to spend on more fruits and vegetables. We piloted Double Up Food Bucks at five farmers' markets that first year. Last year, Double Up operated in more than 140 farmers' markets and 22 groceries stores throughout the state.    So how do we know it works? In 2007, prior to the start of Double Up Food Bucks, total annual SNAP sales at farmers' markets throughout the State of Michigan was $15,000. In 2015, shoppers spent more than $1.5 million in SNAP and Double Up at participating farmers' markets, an additional $200,000 at grocery stores. These are dollars dedicated to helping families bring home more fruits and vegetables. Our evaluation shows that 85 percent of customers say they are eating more produce because of the program, and 60 percent are eating less junk food. Partnerships are crucial to the program's success. We work closely with Michigan SNAP education efforts and organizations. You can learn more about our experience in Michigan in documents that we included in the appendix of our testimony.    But this is not just a Michigan success story. We conducted an evaluation with three other organizations, analyzing 500 farmers' markets in 24 states, and found that, regardless of the setting, urban or rural, large or small, incentives work. Congress responded, and created the Food Insecurity Nutrition Incentive Program. USDA's National Institute of Food and Agriculture is implementing this $100 million competitive grants program. We were honored to receive a grant in the first round of funding, which we matched with over $5 million of additional private funding. This multi-year investment has been a game changer for us, and a huge opportunity for the field. It is allowing us to expand Double Up to many more sites, to extend the program to year-round, and develop new payment transaction technologies that ensure SNAP program integrity, and reduce administrative costs. New partners in many states are working with Fair Food Network to bring Double Up to their communities. As we look ahead toward the next farm bill, there are two opportunities we should be considering. First, we need to develop additional payment technologies for different retail settings, and second, communications is absolutely vital to the success of incentive programs. When people use Double Up, they are hooked. But if they don't know about it, they are not able to benefit from the incentives.    In conclusion, we know there is no single silver bullet, but our experience, and that of our colleagues nationwide, demonstrates the power of healthy food incentives. They work. By partnering across disciplines, we can integrate healthy local produce into an existing Federal nutrition program, and create benefits on multiple fronts simultaneously. Every Federal dollar spent has an immediate return on investment, in terms of reducing hunger, increasing produce consumption, and boosting farm income. FINI is making a difference. It is supporting workable models that are enhancing the value of SNAP and creating connections between rural and urban communities. We have an opportunity now to prepare for and support further development and expansion of this public-private partnership. Many of you have SNAP incentive programs in your districts, and I encourage you to visit them and learn more. Thank you again for this opportunity to share our experience.</t>
   </si>
   <si>
+    <t>Wright</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Wright. Chairwoman Walorski, Ranking Member McGovern, and Members of the Subcommittee, thank you for the honor to testify on the Bluegrass Double Dollars Pilot Program, a project supported by the USDA Food Insecurity Nutrition Incentive Program, or FINI. And a special thank you to my fellow witnesses for sharing their important work. My name is Ashton Wright, and I have the unique responsibility of serving as the City of Lexington, Kentucky's first local food coordinator. I manage Bluegrass Farm to Table, a program that supports food related agricultural development, and the improvement of nutritional health in the region. In today's testimony, I will highlight the work happening in Lexington around nutrition incentive programs, work that was established by pilot funding from FINI.    I work in partnership with Bluegrass Community Foundation to implement our Double Dollars Program, which aims to improve access to healthy, affordable, locally grown produce for low-income individuals participating in the Supplemental Nutrition Assistance Program, or SNAP. Simultaneously, the program strives to strengthen Kentucky's farm economy by increasing the demand for locally grown produce. Based on our pilot project experience, we have identified three ways to strengthen the FINI program. One, encourage strong multi-sector partnerships. Two, increase coordination and collaboration with state SNAP offices. And three, develop a community of practice for FINI grantees.    To provide context, one in five Kentucky residents participates in SNAP. Additionally, our region faces the dichotomy of food insecurity and high rates of obesity. Increasing produce consumption is a documented strategy to help reduce many of the health outcomes associated with obesity. Two of the critical barriers to the purchase and consumption of fresh produce among low-income Lexington residents is lack of access and affordability. Bluegrass Double Dollars aims to reduce these barriers.    Specifically, our program allow SNAP participants to double their purchasing power to buy locally grown produce at three pilot locations, a farmers' market, a cooperatively owned grocery store, and a corner market. The program provides incentives for Kentucky grown produce, coupled with targeted community outreach and education to help SNAP participants become more familiar with, and more willing to purchase, locally grown produce. According to our evaluation data, 90 percent of respondents said that the program encouraged them to purchase more locally grown produce. In the first 6 months of our pilot, the average redemption rate of our incentive vouchers was nearly 80 percent, and the total value of double dollars redeemed for Kentucky grown produce was over $15,000, a win-win for SNAP recipients and Kentucky farmers. This last year we have learned that there is tremendous value in partnering with the Federal Government on nutrition incentive programs. It demonstrates commitment to promoting healthy eating and reducing food insecurity. Because our pilot demonstrates the benefits of healthy eating and supporting local farmers, it allows us to partner and leverage support with stakeholders and funders in both the health and agriculture sectors.    From our experience, we recommend the Committee consider providing USDA with an increase of resources to implement the following three recommendations. First, we recommend that strong multi-sector partnerships be encouraged in an effort to develop sustainable incentive programs that encourage healthy eating among SNAP participants. FINI provides a unique opportunity for building stronger partnerships between the food security and local agriculture sectors by prioritizing projects that incentivize locally sourced produce. Future Federal initiatives should build on this momentum to improve access to healthy, affordable produce, while also strengthening local food economies.    Second, we recommend a more comprehensive approach to educating SNAP recipients about where they can use their SNAP benefits. Specifically, we recommend incentivizing state and local SNAP offices to work collaboratively with grantees to help educate SNAP participants about where they can purchase produce with their benefits, and encourage them to take advantage of these incentive programs, like Bluegrass Double Dollars. Cultivating this buy-in from state and local SNAP offices is critical to the future success of programs like     Third, in the spirit of maximizing the impact of Federal dollars, we recommend that USDA develop a community of practice for organizations implementing incentive programs through FINI to share best practices and lessons learned. This peer-to-peer technical assistance network would streamline the development of resources on which all FINI grantees are working, including technology development, logistics, and education. Fostering this multi-sector collaboration will maximize the impact of the Federal investment in this program.    I look forward to working with the Subcommittee, and my colleagues, to build on the momentum FINI has established to bridge the gap between the important work of reducing food insecurity and strengthening local food economies. And again, I sincerely thank the Chairwoman, Ranking Member McGovern, and members of the staff and Subcommittee for the opportunity to share our lessons learned from the field today.    [The prepared statement of Dr. Wright:]     Prepared Statement of Ashton Potter Wright, Ph.D., Local Food   Coordinator, Bluegrass Farm to Table, Office of the Mayor, City of                        Lexington, Lexington, KYImproving Access to Healthy Food and Supporting Local Food Systems         through the Food Insecurity Nutrition Incentive (FINI) ProgramIntroduction    Subcommittee Chairwoman Walorski, Ranking Member McGovern, and Members of the Subcommittee on Nutrition, it is an honor to be here to testify on the Bluegrass Double Dollars Pilot Program--a project supported by the USDA Food Insecurity Nutrition Incentive (FINI) program. Thank you for the opportunity to share what we have learned from our pilot project relating to food insecurity, nutrition, economic development, and public-private partnerships. And a special thank you to my fellow witnesses for sharing their strategies to reduce food insecurity through the implementation of nutrition incentive programs.    I manage Bluegrass Farm to Table, an initiative of the City of Lexington's Office of Economic Development. Bluegrass Farm to Table serves as a mechanism to increase coordination and collaboration among stakeholders at all levels of the local food system--from production to consumption--and to improve the nutritional health in the region. FINI presents an incredible opportunity to tackle both of these priorities. In partnership with Blue Grass Community Foundation, Bluegrass Farm to Table manages the Bluegrass Double Dollars Pilot Program funded by FINI. Bluegrass Double Dollars aims to improve access to affordable, locally grown produce for low-income individuals participating in the Supplemental Nutrition Assistance Program (SNAP). Simultaneously, Bluegrass Double Dollars strives to stimulate Kentucky's farm economy by increasing the demand for locally grown fruits and vegetables.    Based on our experience as a FINI pilot project recipient, we recommend that the Committee provide USDA with an increase of resources to:  &lt;bullet&gt; encourage stronger multi-sector partnerships;  &lt;bullet&gt; increase coordination and collaboration with state SNAP         offices; and  &lt;bullet&gt; develop a community of practice for FINI grantees.Background    One in five Kentucky residents (828,000) participates in SNAP--the majority of whom are children, elderly, or the disabled. 16.4% of all households are considered food-insecure.\\1\\ Additionally, Kentucky has the 5th highest prevalence of obesity in the nation (prevalence = 33.2%).\\2\\ High rates of obesity correlate with high rates of chronic health conditions such as diabetes, hypertension, heart disease, and certain cancers. Therefore, it is imperative to continue to find solutions to address these problems, particularly among low-income and food-insecure individuals.---------------------------------------------------------------------------    \\1\\ Center on Budget and Policy Priorities analysis of data from USDA Food and Nutrition Service, FY 2013.    \\2\\ ``The State of Obesity: Better Policies for a Healthier America'' from Trust for America's Health and the Robert Wood Johnson Foundation, 2014.---------------------------------------------------------------------------    A documented strategy to help reduce many of the aforementioned chronic health conditions is to increase the consumption of fruits and vegetables. However, low-income individuals are often unable to locate, purchase, and prepare healthier food items. Two of the critical barriers to the purchase and consumption of fresh fruits and vegetables among low-income Lexington residents are the lack of access and affordability. Specifically, access is particularly problematic for low-income individuals who live in the pockets of food deserts where fresh fruit and vegetables are not available. The fresh fruits and vegetables that are available, particularly those that are locally grown, are often too expensive for low-income individuals to purchase. The Bluegrass Double Dollars program aims to reduce these barriers.    Kentucky enjoys a rich agricultural history, largely steeped in tobacco production. Over time, farmers have begun to transition to vegetable production. Most farms in Kentucky are small (under 50 acres) and depend on direct-to-consumer markets to sustain their farm enterprises. With a ready and growing supply of local produce and other farm products, many of these small to medium-sized producers are eager to grow their customer base and welcome the opportunity to partner with programs, such as Bluegrass Double Dollars.Bluegrass Double Dollars Pilot Program    The Bluegrass Double Dollars program is a collaborative public-private partnership between Bluegrass Farm to Table and Blue Grass Community Foundation. The program is designed to make local produce more accessible to SNAP participants in the Lexington area while expanding the market for local food producers. Specifically, the program allows SNAP beneficiaries to double their purchasing power to buy locally grown fruits and vegetables at three pilot sites--a farmers' market, a cooperatively owned grocery store, and a corner store. The program provides incentives for Kentucky-grown produce coupled with targeted community outreach and education to help SNAP participants become more familiar with and more willing to purchase locally-grown produce. According to our pilot project evaluation data, 90% of respondents said the Bluegrass Double Dollars program encouraged them to purchase more locally grown fruits and vegetables and that they would be more likely to shop at venues where they know the program will be offered.    This collaborative economic initiative is focused on supporting both Kentucky SNAP participants and Kentucky farmers. In the first 6 months of our pilot, the average redemption rate of our incentive vouchers was nearly 80%, and the total value of Double Dollars redeemed for Kentucky grown produce was just over $15,000--a win-win for SNAP recipients and Kentucky farmers. The pilot program has gained momentum as participation and redemption have increased nearly each month the program has been in place.Value of FINI    The Food Insecurity Nutrition Assistance Program represents a unique opportunity to meet the two primary goals of Bluegrass Farm to Table-supporting food-related agricultural development and the improvement of nutritional health in the region. The architects of FINI should be commended for providing multiple levels of funding (pilots, projects, and large-scale projects) to develop programs with varying scales and scopes as opposed to taking a one-size-fits-all approach. The pilot funding parameters afforded our planning team in Lexington a great deal of flexibility when designing and implementing our incentive program.    There is tremendous value in nonprofits partnering with the Federal Government on incentive programs such as FINI. It demonstrates that the Federal Government is committed to promoting healthy eating and reducing food insecurity. Having the FINI pilot project grant also allows us to leverage support and buy-in from partner organizations to help sustain the Bluegrass Double Dollars program. Because our pilot demonstrates the benefits of healthy eating and supporting local farmers, it allows us to partner with stakeholders and funders in both the health and agriculture sectors.Lessons Learned and Recommendations from the Field    FINI provides a strong foundation for developing sustainable incentive programs to improve healthy eating among food-insecure individuals. It also provides a unique opportunity to support local food producers. To build on this momentum and to improve future iterations of the program, we recommend that the Committee provide USDA with an increase in resources to:  &lt;bullet&gt; Encourage strong multi-sector partnerships;  &lt;bullet&gt; Increase coordination and collaboration with state SNAP         offices; and  &lt;bullet&gt; Develop a community of practice for FINI grantees.Encourage Strong Multi-Sector Partnerships    Strong multi-sector partnerships should be encouraged in an effort to develop holistic and sustainable incentive programs that encourage healthy eating among SNAP recipients. The FINI program provides a unique opportunity for building stronger partnerships between the food security and local agriculture sectors because it gives preference to projects that incentivize locally or regionally sourced produce. Future Federal opportunities should build on this momentum. Practitioners working on food security and local food systems should be challenged to work with one another to develop creative and sustainable solutions that improve access to healthy, affordable, local food while stimulating the local and regional food economies. Increased synergy between these two sectors has the potential to maximize funding, leverage existing resources, and foster multi-sector collaboration.    Bluegrass Farm to Table and its partner organizations were thrilled to see FINI as a provision in the Agriculture Act of 2014 (Farm Bill) because it allows for increased collaboration between organizations working to address food insecurity and those working to build strong local food economies. The key multi-sector partners involved in Bluegrass Double Dollars include: a community foundation, a cooperatively owned grocery store, a farmers' market, a corner store located in a food desert, Cooperative Extension/SNAP Education Staff, and the University of Kentucky's College of Agriculture, Food, and Environment.Increased Coordination and Collaboration with State/Local SNAP Offices    A more comprehensive approach to educating SNAP recipients about where they can use their SNAP benefits, particularly places that routinely offer healthy, locally produced food is needed. Specifically, we recommend that future FINI requests for proposals incentivize state and local SNAP offices to work collaboratively with FINI grantees to help educate SNAP beneficiaries about where they can use their SNAP benefits for the purchase of produce and encourage them to take advantage of incentive programs such as Bluegrass Double Dollars. We heard stories from program participants that it was not until they heard about the Bluegrass Double Dollars Program that they realized they could even use their SNAP benefits at the farmers' market and the cooperatively owned grocery store. We recognize that educating SNAP users about locations where they can take advantage of the incentive program is an integral component of the program; therefore, we will continue to invest in education and outreach aimed at a wider audience of SNAP users in the Lexington.    Because state and local SNAP offices are tasked with the responsibility of issuing and managing benefits, beneficiaries view them as a trusted source of information. If state and local SNAP offices are incentivized to make healthy eating, especially from local and regional markets, an internal priority, SNAP recipients will be encouraged to use their benefits for locally grown produce, which directly benefits local farm economies. Because all SNAP beneficiaries come into contact with their state and/or local office while participating in the program, partnering with these offices is a much more efficient way to ensure that all possible beneficiaries are receiving pertinent information related to available incentive programs than grantee organizations operating alone. Cultivating this buy-in from state and local SNAP offices is critical to the future success of programs like FINI.Develop a Community of Practice for FINI Grantees    In the spirit of maximizing Federal dollars and minimizing redundancy, we recommend that the USDA develop a community of practice for organizations implementing incentive programs through FINI to share best practices and lessons learned on a regular and recurring basis. This peer-to-peer technical assistance network would streamline the development of resources on which all FINI grantees are working, including technology development, logistics, and education.    Developing the appropriate technology to issue and redeem incentives is time and resource intensive. Our pilot, and likely others, would benefit tremendously from utilizing a standardized technology platform that could be easily tailored to different types of venues (farmers' markets, retail establishments, etc.) while allowing for streamlined incentive issuance, redemption, and reporting/data collection. It is our understanding that several of the programs that have been implementing incentive programs have experimented with various types of technological applications, yet none have found a tool that works well for both farmers' market and retail settings. Working collaboratively in a community of practice to develop such a tool would be tremendously valuable.    Currently, there is no incentive for grant recipients to work together. Establishing a community of practice would ensure that Federal resources are being maximized in the most efficient manner. Additionally, because many of the pilot projects involve unique partnerships, it would benefit the entire group to learn from and collaborate with organizations from different sectors. Increased coordination and collaboration among government entities, nonprofits, and the private sector could have tremendous positive implications for the success of SNAP incentive programs.Conclusion    In conclusion, while the FINI program provides us with the opportunity to bridge the gap between the important work of reducing food insecurity and stimulating local food systems, more work remains to ensure that future funding opportunities encourage strong multi-sector partnerships; coordination and collaboration with state/local SNAP Offices, and the development of a community of practice for FINI grantees. Again, I sincerely thank Chairwoman Walorski, Ranking Member McGovern, and Members of the Subcommittee for providing me with the opportunity to share our lessons learned from the field.    The Chairwoman. Thank you, Dr. Wright. Ms. Kiley, we are thrilled to have you today, and you can proceed with your testimony.</t>
   </si>
   <si>
+    <t>Kiley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kiley. Chairwoman, Ranking Member, and Members of the Subcommittee, thank you for having me. I am already really awed by what I am hearing, and excited about it as a member that is actually using these benefits, and helping my family become healthier, building a stronger community, and it is really wonderful, so thank you.    I want to thank you guys for opportunities. There are so many opportunities I am thankful for, for a part of a community, and a nation, that lets voices be heard, and really working with that to change. I have a lot to say about SNAP. I have a lot to say about WIC. I know I am not here to talk to WIC, but these are things that have taken my family and held us up in a time when we really needed it. And that is really important for our communities to see. So many of these opportunities--I know that we talk about--don't come easily. Just the fact that there is a current Subcommittee hearing on this lets me know that there is work to be done, right? And those programs are always changing, and are always needing more eyes and more ears to see them, and to help them, and guide them, so I thank you for that. I have been a participant in the SNAP program and the WIC program, the WIC program for 4 years--it is coming to an end as my son turns 5 next month--and the SNAP program for at least 3 years. I foresee my time in both programs really coming to an end soon. But as I do that, I really feel the need to be a conduit for change, a voice for really continuing, and letting these things grow.    Hands down my favorite part about the SNAP program are the incentives that I get at the farmers' market. Not only because I have really grown a personal relationship with this market, but because it is such--hands down, ``I am getting something for free,'' right? But to know that I can go to a market, and the Crossroads Market allows me to get $15 shared every week that I go. They will match that, and it is really important. I have used this particular market to feed my family in a healthy way through the winter. Literally, there is a beef stick from the market in my bag. What I do is I go and I buy items that I know are going to last, because I don't have this market in the winter. So I go, and I spend all, and I buy things that will last, onions, potatoes, meat that I can freeze, and it is going to see me through.    So one of the things that is frustrating is that these markets are out there, and, as you said, these can't be used if people don't know about them, right? We do find that the momentum and the--just hearing that you have this extra money to buy fruits and vegetables is really important. But, if you don't know about it, finding where these markets are, I find that the advertising, or the listing of it on their websites is very difficult to decipher. I know what I am looking for, so I know what to ask, but there are a lot of people that don't, right? I have a food education. I have a relationship with food that gives me the knowledge to actually begin to already know how to plan meals that are healthy. There are a lot of community people that don't know that, right? They haven't been brought up that way. My son will be brought up that way, so it is different.    So for me it hasn't affected the health of the way I cook, because we were already so healthy, but it absolutely affects the ease at how I do it, the quantity of what I do, what I cook, and what I purchase for my son, and it has been really important. But getting this information out there and streamlined--for one example, how many different names do we have to have for this program? I mean, Double Dollars, $5, Triple Your Money Here, is that something that we want to streamline? Is that something that makes more sense? I know WIC in Ohio, right? I know WIC in Kentucky. But Double Dollars, do I know that is what are we calling it? And that is important for people to see, for them to see, the branding. I mean, that is how we work, right? I mean, we all know what Pepsi is, right? So what is the branding for this?    You will notice that I am not really reading off of the statement, because I don't work as well reading, so one of the things I would be really excited to think about using this at a grocery store, but one of the things that this actually does for me that is important is it takes us out of that large chain grocery store, and it takes us into this community with farmers, right, with other families that I would never meet. I would never meet these families, probably, and their children. And it gives you a community with--where things are coming from. Now, the farmer might come from 2 hours away in Pennsylvania, right, but I see them every single week for 3, 4 months on a row, right? And they know. ``Hey, Kiley, where were you? I haven't seen you for 2 weeks, what is going on? Here, give your son an apple.'' Like, that is the kind of thing that we need to see, to really get to know people, right? To strengthen our communities, and talk about food. So thank you.</t>
   </si>
   <si>
+    <t>Cooper</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cooper. Chairwoman Walorski, Ranking Member McGovern, and Members of the Subcommittee, thank you so much for this opportunity to bring you warm greetings from the great State of Texas, our Congressional delegation here, and our county government, and also our mayor, Ivy Taylor. I am pleased to represent the San Antonio Food Bank, which has a great staff who work diligently, and a wonderful board, with executives from companies like Valero Energy, and USAA, and even our World Champion San Antonio Spurs Greg Popovich. So just feel that love and support. We are, as a food bank, a member of a state association, Feeding Texas, where there are a little over 20 food banks that work within the boundaries of the State of Texas, and we are a part of a national network, Feeding America, where there are 200 food banks that work together to feed and serve more than 46 million people in need, which includes 12 million children and about seven million seniors.    The San Antonio Food Bank actually serves 16 counties of the great State of Texas, and within those 16 counties, we have about 530 different partner organizations. They provide food to about 58,000 people each week. And we basically frame our work into three different areas, food for today, food for tomorrow, and food for a lifetime. As clients are in need, that stress of being food-insecure, and being without food, they might call or come to the food bank. We want to meet that immediate need of hunger through a referral to one of our 530 different nonprofit organizations. We then want to have a conversation around food for tomorrow. And what we do there is help those families with application assistance in many Federal programs, to include SNAP, WIC, the Children's Health Insurance Program, Medicaid, TANF, and long-term care. In that process we are able to work with our state to determine eligibility, and we are then able to have a conversation around employment.    In our core belief, we believe that people should work according to their ability, and receive according to their need, and that opportunity for those individuals receiving assistance to take advantage of our workforce training opportunities there at the food bank, whether in culinary arts, or warehouse training, or just direct job placement, moves them to a place of self-sufficiency, and gives them the dollars that then they can make decisions on. And we have a very robust nutrition education program in that last tier of Food For A Lifetime, which is really about educating families on how to get the best nutrition for their dollar, and how to leverage their dollar to get the best nutrition. We were so privileged to be chosen as a FINI grant recipient, and we have launched a strategy working with our local Children's Hospital of San Antonio, and several clinics, and a major grocery retailer, H-E-B. And we have identified expecting mothers that are SNAP eligible that enter the program, and receive an incentive based on participating in a nutrition education curriculum that is orchestrated at the store level. Those individuals are taught how to shop a grocery store, and leverage the dollars that they have.    Time and time again we see the direct correlation between the poverty line and the waste line. San Antonio has high rates of diabetes, obesity, heart disease, and we believe in what Ranking Member McGovern's mother believed, that the apple a day does keep the doctor away, and that families struggle to get access to good, healthy food. And there are lots of barriers, whether that is income, or knowledge, or geography. The food bank is working to try to bring together the partners in public and private partnerships to try to remedy that.    It is humbling when we can provide the right food in the right amounts at the right time to someone that is hungry. When someone is in need--and we believe that hunger is a symptom of poverty, and people that are in poverty have lots of issues, but someone that is hungry just has one issue. And until we solve that one issue, it is tough to move folks forward to that place of self-sufficiency. So thank you so much for the opportunity to share just a few thoughts.</t>
   </si>
   <si>
+    <t>Petee</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Petee. Good morning, Chairwoman Walorski, Ranking Member McGovern, and Members of the Nutrition Subcommittee. It is my pleasure to be here today as the Executive Director of The Root Cause Coalition, as well as the Chief Advocacy Officer for ProMedica, a Toledo, Ohio based nonprofit health system that serves 27 counties of northwest Ohio and southeast Michigan. I have spent the better part of my career working with clinicians, administrators, policymakers, health care leaders, and community partners to address health disparities in ProMedica's service area. As we battled epidemics of low birth weight, childhood obesity, diabetes, heart disease, cancer, and other chronic diseases, we, like many health care providers across the country, began to ask, why? Why are we seeing such high rates of these issues in our community?    From this simple question, ProMedica began a journey that, in partnership with the AARP Foundation, founded The Root Cause Coalition, to bring the full power of the health care community to bear in addressing the social determinants of health, with specific focus on hunger as a health issue. If I have learned anything from this work, and this is the most important thing that I hope the Committee will take away from my short time with you today, is that hunger is a health issue, and food is the best medicine.    It is because of this indisputable fact that the work of the Subcommittee to strengthen our nation's nutrition policy is so vitally important. Your work on these basic building blocks, especially the SNAP Program, have far-reaching impacts on many issues at the foundation of a strong future for our country. Proper nutrition, especially during an individual's developmental years, has a direct impact on the long-term productivity, economic status, and health of that individual, and ultimately entire communities. The programs overseen by this Committee are about more than the immediate needs of hungry children, adults, and seniors. These programs are core investments in the health and well-being of your constituents, and our nation's ability to adapt to an ever-changing global economy.    As a nation, the health care community in particular are coming to terms with the realization that the social determinants of health, especially access to proper nutrition, have a direct impact on an individual's health. Lack of access to proper nutrition not only leads to and exacerbates a plague of chronic physical and mental health conditions, but it also impedes brains development, educational outcomes, and economic viability. It limits access to safe, affordable housing and transportation, and leads to disciplinary and public safety concerns. Proper nutrition is the cornerstone of our ability to ensure the lifetime health of individuals, communities, and our nation. Without it we cannot hope to have a lasting impact on a litany of other social determinants affecting community health.    But this is more than just an altruistic discussion, it is about dollars and cents. The cost of hunger to the health care community alone totals nearly $130.5 billion every year, and the cost to every U.S. citizen over a lifetime is on pace to reach roughly $42,400. We know that ensuring pregnant women have access to nourishing food throughout pregnancy increases the chance for a full term, healthy weight baby. To put that in perspective, in 2008 approximately ten percent of births nationwide included a diagnosis of pre-term or low birth weight, but those births accounted for nearly 45 percent of all infant hospitalization costs, or over $10 billion. These low birth weight and pre-term babies are also at a greater risk of delayed development, chronic disease, and a lifetime of poor health.    We know that hunger is a health issue, we know that food is the best medicine, and we know that the SNAP Program is helping to address the immediate needs of the most vulnerable in our communities. We also know that Congress, and programs such as SNAP, are not, and should not, be the only solution. SNAP is an essential safety net that must remain strong to ensure the most vulnerable in our communities do not fall through the cracks. But the health care industry must be part of a more permanent solution to addressing basic needs as well. That is why we at ProMedica have begun to screen patients for food insecurity in our acute care and physician office settings. We have food pharmacies that replace the cycle of medicine being used to treat conditions that nutritious food can treat more effectively. ProMedica has even eliminated a food desert in Toledo's inner city by opening a 5,000 square foot grocery store that is now being used as a model not only for food access and affordability, but for job training and economic growth. And through The Root Cause Coalition, we are working with organizations across our community, and across the country, that showcase creative, effective partnerships in addressing food insecurity, nutrition education, and even economic development so that every citizen can reach his or her highest potential. Thank you for your time this morning.</t>
   </si>
   <si>
@@ -112,6 +136,12 @@
     <t>412400</t>
   </si>
   <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Crawford. Thank you, Madam Chair. We hear this term food desert quite a bit, and it characterizes an area with limited access to healthy foods, but there is a difference between urban and rural food deserts that probably we don't talk about very often, and I represent a very rural district. According to USDA, an urban food desert is an area that is 1 mile or more from healthy food providers, but if you live in an area like I do, in rural America, you may live 10 miles or more, and in remote areas, it is even worse than that, from your nearest grocery store or farmers' market.    So apart from the obvious geographic differences between urban and rural food deserts, can you discuss the distinct challenges that urban and rural food deserts present, and how that might merit a different response from both policymakers and those on the ground like yourselves? And anybody is welcome to weigh in on that, whoever wants to go first.</t>
   </si>
   <si>
@@ -145,6 +175,12 @@
     <t>412615</t>
   </si>
   <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>Pete</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Aguilar. Thank you, Madam Chair. Mr. Cooper, in my district, farmers' markets that participate in SNAP have, at times, encountered challenges. And I wanted to ask about your experience with this. And despite efforts, I read in your testimony, your knowledge of these issues, and I wanted to see what do you think might be the cause? Despite our best efforts, and some of our recruitment for these farmers' markets, and offering that access to folks, what can we do to improve that access? And I have some questions for Dr. Hesterman and Dr. Wright as well.</t>
   </si>
   <si>
@@ -166,6 +202,12 @@
     <t>412436</t>
   </si>
   <si>
+    <t>Benishek</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you, Madam Chair. Dr. Hesterman, thanks for being here today.</t>
   </si>
   <si>
@@ -220,6 +262,12 @@
     <t>412558</t>
   </si>
   <si>
+    <t>Lujan Grisham</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Lujan Grisham. Thank you, Madam Chair, and thanks to the panel. Given that my state is still one of the hungriest states in the country, New Mexico, it is great to hear about the kinds of ideas and incentives that allow you to do more with what you have, and making it as healthy as possible. I did the SNAP Challenge, and without a dollar to dollar match, notwithstanding the incentive, there isn't enough to buy fresh fruits and produce. I think when I did the challenge, in order to have enough protein, the only fruit I could buy was a couple of bananas. And so it just isn't enough to sustain yourself or your family.    And so I am very excited to hear about the organization's work in Michigan, and the Double Up Food Bucks. And I have a public health background, so all of this is exactly the way in which these programs were intended to work. But we find that they need an additional boost to do that. I think these kinds of incentives are especially important for poor states like New Mexico, and any other areas in the country that have high rates of food insecurity, poverty, obesity, and other diet related illnesses.    I want to tell you that, in fact, the Double Up Program is very successful in New Mexico. We are seeing more low-income families being able to purchase fruits and vegetables. And, in fact, according to a report, the New Mexico Farmers' Marketing Association put out this month 88 percent of their customers increased the amount of fresh fruit and vegetables they purchased because of the program. In 2015 alone the Double Up Program benefited more than 4,000 low-income New Mexicans. So not only are we improving nutrition and health outcomes in communities, but we are seeing Double Up do the other thing, which is create more economic development opportunities, particularly for farmers. And we are seeing a resurgence of young people interested in farming in both rural and urban communities. We saw 195 percent increase in total EBT sales through the Farmers' Market Association, and that impacted 60 percent of New Mexico counties, and 60 percent of the direct market farmers statewide. We are also expecting the program to generate more than $4 million over the next 4 years.    I am sure you already have all these stats, about all the different impacts. And I have been listening in earnest, of course, but really interested in the points we are making about really connecting and coalescing our nonprofit and charitable community in this effort in providing these kinds of incentives. But notwithstanding the wonderful results in New Mexico, the reality is we still have one of the hardest hit economies in the country, with some of the highest poverty rates in the country. We are, in fact, the only state in the nation that is losing population because there are no job opportunities in the state. We are in an interesting battle about what we do about work requirements when we can't find work anywhere in the state. And when we had our Human Services Secretary talk about work incentives a year ago--she is no longer with that department--she talked about the great jobs in oil and gas, and there are no jobs in oil and gas in our state, and we are really struggling.    So I am really excited to tell you that, in spite of that situation, I believe that New Mexico is the only state that has state funding over the long-term to secure this program so that the Double Up Program is available. And the reason I think that that is really important, and want to get your ideas about how we encourage other states with the time we have left, is that our charitable organizations in this environment are also stretched too thin. So, to take advantage, I do think that you want to have local governments, state governments, engaged. What are you doing to get more states to think about long-term funding for these kinds of ideas?</t>
   </si>
   <si>
@@ -232,6 +280,12 @@
     <t>412536</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Rodney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Madam Chair, and this is a great opportunity for those of us who sat around these tables and crafted the farm bill to kind of see and hear what our policy changes that we put into effect, and new and innovative approaches, how they are being implemented in the marketplace.    I want to follow up a little bit on what my colleague Mr. Benishek asked you, Dr. Hesterman, about the ability to put point of sale equipment into farmers' markets. I know that part of our policies that we put forth allows the states to get from the USDA upwards of $4 million to help with these point of sale equipment purchases. Can you tell me, has that program been effective, or are you taking advantage of it at any of the ones that you see in your community?</t>
   </si>
   <si>
@@ -313,6 +367,12 @@
     <t>412607</t>
   </si>
   <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Alma</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Madam Chair, and Ranking Member McGovern. Thank you all for your testimony. It has been very interesting to hear the stories. Farmers' markets have become a very popular way to improve fresh food options in food deserts throughout the 12th District, and we have a lot of them in the 12th District of North Carolina that I represent. Guilford County is currently using USDA funding to support farmers' markets in food deserts, including the Mobile Oasis Farmers' Market in Greensboro and High Point. Food Insecurity Nutrition Incentive Grants, and the Farmers' Market Promotion Program are vital programs for supporting one of the few grocery store alternatives available to residents living in food deserts.    As mobile and seasonal retailers in farmers' markets usually use wireless equipment for processing SNAP benefits, this requires a farmers' market to contract out equipment, and to pay a transaction fee for every purchase that uses SNAP benefits. For smaller business owners or farmers, this is a significant barrier to allowing a SNAP recipient to use their benefits to purchase fresh produce.    Dr. Hesterman, what long-term solutions would you recommend for USDA in order to meet Congress's intent that healthy food retailers not face cost barriers to serving participants in the SNAP Program?</t>
   </si>
   <si>
@@ -331,6 +391,12 @@
     <t>412317</t>
   </si>
   <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thompson. Madam Chair, thank you so much for this hearing. Thanks to all the panelists for not just being here, but for the work you do in your communities each and every day. This last month I really had the privilege and honor, I hosted a couple of events. The first was at our 100th annual Farm Show in Harrisburg, Pennsylvania, and we did a listening session. I was joined by several of my colleagues, including the full Agriculture Committee Chairman, Mr. Conaway from Texas, and we really heard from a lot of different aspects of agriculture, but there was a heavy emphasis on food insecurity.    And I heard from just a great champion, Karen Wooding from the Central Pennsylvania Food Bank, and then most recently--just a couple weeks ago I did a visit to a food bank in my home county. We spent some time there talking with the people that were there, looking for nutrition for themselves and their family members. And the wonderful people that run, dedicate themselves, a lot of volunteers, including a pediatrician who was there volunteering. As a former health care professional, I mean, good nutrition is a fundamental building block to good health, there is no doubt about it. And the fact that we are starting to explore that more consciously, and build upon that, and build collaborations, that is part of the fruit we are hoping to yield from the work that is done here. I am not a--I am not going to hear--I don't think there is--we have no preconceived outcome here. I think we want to make this better. We want to make sure we are serving people, and we want to make things operate efficiently, and I am proud of the work that we are doing.    So let me follow up a little bit. Dr. Hesterman, we know there are Americans who are not consuming enough fruits and vegetables, which is why the incentive dollars used specifically for fruits and vegetables make sense. However, some would argue that also allowing incentive dollars to be used for lean meats, dairy, eggs--I saw all that, and I heard about that, and I actually saw that in my food bank visit, the whole use of freeze flash technology, or flash freeze, whatever order that is, it is just amazing what people are able to get access to. It gives it a much longer shelf life, it is nutritious, it is tasty. Should we consider allowing these incentive dollars to be used for those other commodities, lean meats, dairy, eggs, you can fill in the blank, to provide additional nutritional benefits to the consumer, and do you envision most incentive programs will remain focused on fruits and vegetables, or will expand to healthy foods throughout the store and the market?</t>
   </si>
   <si>
@@ -352,6 +418,12 @@
     <t>412642</t>
   </si>
   <si>
+    <t>Ashford</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thompson.--several decades. But even then, we still remember how uncomfortable it was to walk into the local IGA. And so I appreciate those types of innovations. Thank you.    The Chairwoman. The chair recognizes Congressman Ashford, for 5 minutes.    Mr. Ashford. Thank you, Madam Chair. This is really exciting stuff. And I know we are similar to Kentucky in some ways, we are a rural state, Nebraska, and we have an urban area in Omaha. Last fall we had a conference sponsored by former Lieutenant Governor Maxine Moul from Nebraska, who is the USDA Rural Development ag person in the state. It was very, very, very well attended by both rural and urban people. These grants that have been handed out are really creative, and, looking through them, what a great program for the country.    I have a question--and thank you, Dr. Hesterman, for your leadership in getting this started. Someone has to get it started, I guess, and you did, so it is really great work. I had spent a number of years running a housing authority in Omaha, and it is a public housing authority, with residents living throughout the community, and in public housing as well, but in scatter site housing. Obviously many of the residents qualified for SNAP. And I have asked this before when we have discussed these programs generally, I would ask Dr. Wright. In Lexington, which is a beautiful city, by the way. In Lexington, how about the housing authorities there? Was that part of your partnership initiative?</t>
   </si>
   <si>
@@ -374,6 +446,12 @@
   </si>
   <si>
     <t>412659</t>
+  </si>
+  <si>
+    <t>Plaskett</t>
+  </si>
+  <si>
+    <t>Stacey</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Plaskett. Thank you. Thank you, Madam Chair, and thank you also for all being here. Ms. Kylie, I was really moved by your written testimony, and, as a mother, I am very keenly aware, and thank you for the importance of having your children be at the food markets as well, the farmers' markets, to have them grab healthy habits with regard to--and I loved how you are putting the face of the farmers who are creating their food. I think that that is really important in the kind of world that we live now. So many of our children are in urban areas, or in areas where they don't meet farmers, to know that these are the people that are growing your food. And it also really does something great for the farmers as well, to see young people who are going to be eating the foods that they are working to create for them.    I wanted to ask you, Dr. Wright, about one of the things that you were talking about. You talked about the best place to inform SNAP recipients of the Double Dollars Program is the state SNAP offices. And it is interesting, and unfortunate, because we know that that outreach is no longer funded by Congress, which at one time funded it. Do you think that that is a good investment of our funding source, to be able to use those offices? I know that our local government does not have the capacity to have someone specifically for that. Have you seen any demonstrable evidence of that being able to assist in the utilization of the program?</t>
@@ -737,7 +815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,7 +823,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,2501 +845,2916 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
       <c r="H29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G35" t="s">
+        <v>53</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G36" t="s">
+        <v>62</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G38" t="s">
+        <v>62</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G41" t="s">
+        <v>62</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G44" t="s">
+        <v>62</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G46" t="s">
+        <v>62</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G48" t="s">
+        <v>62</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G50" t="s">
+        <v>62</v>
+      </c>
       <c r="H50" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G52" t="s">
+        <v>62</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G53" t="s">
+        <v>62</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G54" t="s">
+        <v>82</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G56" t="s">
+        <v>82</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G57" t="s">
+        <v>88</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>71</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G59" t="s">
+        <v>88</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>71</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G61" t="s">
+        <v>88</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>71</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G63" t="s">
+        <v>88</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>71</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G65" t="s">
+        <v>88</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>71</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G67" t="s">
+        <v>88</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>71</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G69" t="s">
+        <v>88</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>71</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G71" t="s">
+        <v>88</v>
+      </c>
       <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>71</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G73" t="s">
+        <v>88</v>
+      </c>
       <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>71</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G75" t="s">
+        <v>88</v>
+      </c>
       <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>71</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G77" t="s">
+        <v>88</v>
+      </c>
       <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>71</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G79" t="s">
+        <v>88</v>
+      </c>
       <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>21</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>71</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G81" t="s">
+        <v>88</v>
+      </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>71</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G82" t="s">
+        <v>88</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>98</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="G83" t="s">
+        <v>117</v>
+      </c>
       <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>98</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="G85" t="s">
+        <v>117</v>
+      </c>
       <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>25</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>98</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="G87" t="s">
+        <v>117</v>
+      </c>
       <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>104</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G88" t="s">
+        <v>125</v>
+      </c>
       <c r="H88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>104</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G90" t="s">
+        <v>125</v>
+      </c>
       <c r="H90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>104</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G92" t="s">
+        <v>125</v>
+      </c>
       <c r="H92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>111</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G94" t="s">
+        <v>134</v>
+      </c>
       <c r="H94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I94" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>111</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G96" t="s">
+        <v>134</v>
+      </c>
       <c r="H96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>25</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>111</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G98" t="s">
+        <v>134</v>
+      </c>
       <c r="H98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>25</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>111</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G100" t="s">
+        <v>134</v>
+      </c>
       <c r="H100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>119</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G101" t="s">
+        <v>144</v>
+      </c>
       <c r="H101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I101" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>119</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G103" t="s">
+        <v>144</v>
+      </c>
       <c r="H103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I103" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>119</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G105" t="s">
+        <v>144</v>
+      </c>
       <c r="H105" t="s">
-        <v>124</v>
+        <v>145</v>
+      </c>
+      <c r="I105" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98679.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98679.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400263</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>McGovern</t>
   </si>
   <si>
@@ -134,6 +140,9 @@
   </si>
   <si>
     <t>412400</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Crawford</t>
@@ -815,7 +824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -823,7 +832,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,2913 +857,3120 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I32" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I38" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G41" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G44" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G48" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G50" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G52" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G53" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H54" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G56" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H56" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I56" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G57" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="H57" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G59" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="H59" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I59" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G61" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="H61" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I61" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G63" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G67" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s">
-        <v>19</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G71" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I71" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G73" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="H73" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s">
-        <v>23</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G75" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="H75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s">
-        <v>23</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>25</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G77" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="H77" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>25</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G79" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="H79" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I79" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s">
-        <v>21</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>23</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G81" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="H81" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I81" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="H82" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G83" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="H83" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I83" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G85" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="H85" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I85" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s">
-        <v>25</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G87" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="H87" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I87" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G88" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="H88" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I88" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G90" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="H90" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I90" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G92" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="H92" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I92" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G94" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="H94" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I94" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
-        <v>19</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>21</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G96" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="H96" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I96" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s">
-        <v>25</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>27</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G98" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="H98" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I98" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J98" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s">
-        <v>25</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G100" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="H100" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I100" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J100" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G101" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="H101" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I101" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J101" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>21</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G103" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="H103" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I103" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s">
-        <v>17</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G105" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="H105" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I105" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="J105" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
